--- a/06-08-25 to 06-14-25 Milwaukee Schedule.xlsx
+++ b/06-08-25 to 06-14-25 Milwaukee Schedule.xlsx
@@ -3598,7 +3598,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve">THE BADGER 401 K PROGRAM TO HELP YOU GET FREE </t>
+          <t>THE BADGER 401 K PROGRAM TO HELP YOU GET FREE MONEY</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -3637,7 +3637,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>MONEY. THERE IS NO OBLIGATION TO JOIN</t>
+          <t>THERE IS NO OBLIGATION TO JOIN</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3995,7 +3995,7 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t xml:space="preserve">THE BADGER 401 K PROGRAM TO HELP YOU GET FREE  </t>
+          <t xml:space="preserve">THE BADGER 401 K PROGRAM TO HELP YOU GET FREE MONEY </t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -4052,7 +4052,7 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t xml:space="preserve">MONEY. THERE IS NO OBLIGATION TO JOIN </t>
+          <t xml:space="preserve">THERE IS NO OBLIGATION TO JOIN </t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>

--- a/06-08-25 to 06-14-25 Milwaukee Schedule.xlsx
+++ b/06-08-25 to 06-14-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y85"/>
+  <dimension ref="A1:Y84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Louisa</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4610,7 +4610,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4642,21 +4642,9 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
@@ -4709,7 +4697,11 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
@@ -4738,7 +4730,7 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
@@ -4757,37 +4749,6 @@
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr"/>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr"/>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/06-08-25 to 06-14-25 Milwaukee Schedule.xlsx
+++ b/06-08-25 to 06-14-25 Milwaukee Schedule.xlsx
@@ -3400,11 +3400,7 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>4:45 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
@@ -3465,7 +3461,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:45 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3516,7 +3512,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3567,7 +3563,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>FOX BROS PIGGLY WIGGLY #082, MAYVILLE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3618,7 +3614,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>1440 HORICON ST</t>
+          <t>FOX BROS PIGGLY WIGGLY #082, MAYVILLE</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3670,7 +3666,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/3nJCWDd6bxMw9Df6A</t>
+          <t>1440 HORICON ST</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3713,7 +3709,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>STORE OPENS AT 6:00 AM, TO GET IN ANY EARLIER THERE IS A DOORBELL ON THE SIDE OF THE BUILDING</t>
+          <t>https://maps.app.goo.gl/3nJCWDd6bxMw9Df6A</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3754,7 +3750,11 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>STORE OPENS AT 6:00 AM, TO GET IN ANY EARLIER THERE IS A DOORBELL ON THE SIDE OF THE BUILDING</t>
+        </is>
+      </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
@@ -3784,22 +3784,9 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>Driver,
-White Camry, Equip</t>
-        </is>
-      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
@@ -3830,17 +3817,18 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+White Camry, Equip</t>
         </is>
       </c>
       <c r="T61" t="inlineStr"/>
@@ -3877,12 +3865,12 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -3924,12 +3912,12 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -3967,12 +3955,12 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -4024,12 +4012,12 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -4075,12 +4063,12 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -4122,12 +4110,12 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -4169,12 +4157,12 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -4208,12 +4196,12 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -4251,12 +4239,12 @@
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -4294,12 +4282,12 @@
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -4337,12 +4325,12 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
@@ -4378,9 +4366,21 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>

--- a/06-08-25 to 06-14-25 Milwaukee Schedule.xlsx
+++ b/06-08-25 to 06-14-25 Milwaukee Schedule.xlsx
@@ -2317,7 +2317,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>5:00 AM OFFICE MEET</t>
+          <t>5:30 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2364,7 +2364,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t xml:space="preserve">7:00 AM START </t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>

--- a/06-08-25 to 06-14-25 Milwaukee Schedule.xlsx
+++ b/06-08-25 to 06-14-25 Milwaukee Schedule.xlsx
@@ -4366,21 +4366,9 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>

--- a/06-08-25 to 06-14-25 Milwaukee Schedule.xlsx
+++ b/06-08-25 to 06-14-25 Milwaukee Schedule.xlsx
@@ -3276,22 +3276,9 @@
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
@@ -3400,7 +3387,11 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>4:45 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
@@ -3461,7 +3452,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>4:45 AM OFFICE LEAVE TIME</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3512,7 +3503,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3563,7 +3554,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FOX BROS PIGGLY WIGGLY #082, MAYVILLE</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3614,7 +3605,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>FOX BROS PIGGLY WIGGLY #082, MAYVILLE</t>
+          <t>1440 HORICON ST</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3666,7 +3657,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>1440 HORICON ST</t>
+          <t>https://maps.app.goo.gl/3nJCWDd6bxMw9Df6A</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3709,7 +3700,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/3nJCWDd6bxMw9Df6A</t>
+          <t>STORE OPENS AT 6:00 AM, TO GET IN ANY EARLIER THERE IS A DOORBELL ON THE SIDE OF THE BUILDING</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3750,11 +3741,7 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>STORE OPENS AT 6:00 AM, TO GET IN ANY EARLIER THERE IS A DOORBELL ON THE SIDE OF THE BUILDING</t>
-        </is>
-      </c>
+      <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
@@ -3784,9 +3771,22 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry, Equip</t>
+        </is>
+      </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
@@ -3817,18 +3817,17 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>Driver,
-White Camry, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T61" t="inlineStr"/>
@@ -3865,12 +3864,12 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -3912,12 +3911,12 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -3955,12 +3954,12 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -4012,12 +4011,12 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -4063,12 +4062,12 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -4110,12 +4109,12 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -4157,12 +4156,12 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -4196,12 +4195,12 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -4239,12 +4238,12 @@
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -4282,12 +4281,12 @@
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -4323,21 +4322,9 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
